--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value656.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value656.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.967105067041673</v>
+        <v>1.244007110595703</v>
       </c>
       <c r="B1">
-        <v>2.428355078422719</v>
+        <v>2.331911087036133</v>
       </c>
       <c r="C1">
-        <v>2.53297729859936</v>
+        <v>3.119572877883911</v>
       </c>
       <c r="D1">
-        <v>3.147503925029354</v>
+        <v>3.599503755569458</v>
       </c>
       <c r="E1">
-        <v>1.483938330940996</v>
+        <v>1.31069540977478</v>
       </c>
     </row>
   </sheetData>
